--- a/data/2017-09-08_seq9_Huh7_CayRFP_CHX.xlsx
+++ b/data/2017-09-08_seq9_Huh7_CayRFP_CHX.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="2">
   <si>
     <t xml:space="preserve">t</t>
   </si>
@@ -123,10 +123,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:FM121"/>
+  <dimension ref="A1:CL121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="CS26" activeCellId="0" sqref="CS26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -134,7 +134,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -403,243 +403,6 @@
         <v>1</v>
       </c>
       <c r="CL1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="CM1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="CO1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="CP1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="CQ1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="CR1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="CS1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="CT1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="CU1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="CV1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="CW1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="CX1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="CY1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="CZ1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DA1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DB1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DC1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DD1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DE1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DF1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DG1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DH1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DI1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DJ1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DK1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DL1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DM1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DN1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DO1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DP1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DQ1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DR1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DS1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DT1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DU1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DV1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DW1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DX1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DY1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="DZ1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="EA1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="EB1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="EC1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="ED1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="EE1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="EF1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="EG1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="EH1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="EI1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="EJ1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="EK1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="EL1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="EM1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="EN1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="EO1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="EP1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="EQ1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="ER1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="ES1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="ET1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="EU1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="EV1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="EW1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="EX1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="EY1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="EZ1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="FA1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="FB1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="FC1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="FD1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="FE1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="FF1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="FG1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="FH1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="FI1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="FJ1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="FK1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="FL1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="FM1" s="0" t="s">
         <v>1</v>
       </c>
     </row>
